--- a/biology/Médecine/Albert_Devaux/Albert_Devaux.xlsx
+++ b/biology/Médecine/Albert_Devaux/Albert_Devaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Félix Albert Devaux est un neurologue français, né le 25 septembre 1874 à Paris (7e arrondissement) et mort le 16 janvier 1951 à Vallauris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Félix Albert Devaux est un neurologue français, né le 25 septembre 1874 à Paris (7e arrondissement) et mort le 16 janvier 1951 à Vallauris.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est issu d'une famille d'instituteurs[réf. souhaitée]. Après des études secondaires au lycée Louis-le-Grand, il poursuite ses études à la faculté de médecine de Paris, où il occupe un poste de chef de laboratoire. Il se spécialise en neurologie à l'université de Heidelberg, puis dirige la Maison d'hydrothérapie et de convalescence du Parc de Neuilly, en association avec Paul-Amédée Accolas, L. Bour et René Charpentier[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est issu d'une famille d'instituteurs[réf. souhaitée]. Après des études secondaires au lycée Louis-le-Grand, il poursuite ses études à la faculté de médecine de Paris, où il occupe un poste de chef de laboratoire. Il se spécialise en neurologie à l'université de Heidelberg, puis dirige la Maison d'hydrothérapie et de convalescence du Parc de Neuilly, en association avec Paul-Amédée Accolas, L. Bour et René Charpentier.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1904, il se marie en premières noces avec Marie Studemund (1883-1909), la fille aînée de Marie Wurster et Wilhelm Studemund, philologue et professeur à l'université de Strasbourg[3]. Ils ont un fils, Gilbert Devaux, haut fonctionnaire. En 1915 Albert Devaux se remarie avec Auguste Isaïe Brugnes (1876-1972).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1904, il se marie en premières noces avec Marie Studemund (1883-1909), la fille aînée de Marie Wurster et Wilhelm Studemund, philologue et professeur à l'université de Strasbourg. Ils ont un fils, Gilbert Devaux, haut fonctionnaire. En 1915 Albert Devaux se remarie avec Auguste Isaïe Brugnes (1876-1972).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(Thèse) Endothéliomes des méninges, Faculté de médecine de Paris, 1901.
 Abcès cérébral, nécrose corticale, syndrome méningé, avec Ernest Dupré, Masson, 1906.
